--- a/data/king_co_zipcodes.xlsx
+++ b/data/king_co_zipcodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avalencia\Documents\Flatiron\phase_2\project\bsc-phase-two-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C11CA5-81FD-41AA-A68A-C73B763291DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE65908-9E46-430F-8388-001C19CDC4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
-    <t>ZIP Code</t>
-  </si>
-  <si>
-    <t>ZIP Code Name</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>Auburn</t>
   </si>
   <si>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>Cle Elum</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>zipcodename</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,13 +464,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -478,7 +478,7 @@
         <v>98001</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>31911</v>
@@ -489,7 +489,7 @@
         <v>98002</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>31647</v>
@@ -500,7 +500,7 @@
         <v>98003</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>44151</v>
@@ -511,7 +511,7 @@
         <v>98004</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>27946</v>
@@ -522,7 +522,7 @@
         <v>98005</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>17714</v>
@@ -533,7 +533,7 @@
         <v>98006</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>36364</v>
@@ -544,7 +544,7 @@
         <v>98007</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>24889</v>
@@ -555,7 +555,7 @@
         <v>98008</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>24411</v>
@@ -566,7 +566,7 @@
         <v>98010</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>5025</v>
@@ -577,7 +577,7 @@
         <v>98011</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>29212</v>
@@ -588,7 +588,7 @@
         <v>98014</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>6765</v>
@@ -599,7 +599,7 @@
         <v>98019</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>10725</v>
@@ -610,7 +610,7 @@
         <v>98022</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>20987</v>
@@ -621,7 +621,7 @@
         <v>98023</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>47510</v>
@@ -632,7 +632,7 @@
         <v>98024</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>5650</v>
@@ -643,7 +643,7 @@
         <v>98027</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>26141</v>
@@ -654,7 +654,7 @@
         <v>98028</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>20419</v>
@@ -665,7 +665,7 @@
         <v>98029</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>24348</v>
@@ -676,7 +676,7 @@
         <v>98030</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>33769</v>
@@ -687,7 +687,7 @@
         <v>98031</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>36581</v>
@@ -698,7 +698,7 @@
         <v>98032</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>33853</v>
@@ -709,7 +709,7 @@
         <v>98033</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>34338</v>
@@ -720,7 +720,7 @@
         <v>98034</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>40407</v>
@@ -731,7 +731,7 @@
         <v>98038</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>31171</v>
@@ -742,7 +742,7 @@
         <v>98039</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>2971</v>
@@ -753,7 +753,7 @@
         <v>98040</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>22699</v>
@@ -764,7 +764,7 @@
         <v>98042</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>43673</v>
@@ -775,7 +775,7 @@
         <v>98045</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>13888</v>
@@ -786,7 +786,7 @@
         <v>98047</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>6339</v>
@@ -797,7 +797,7 @@
         <v>98051</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>3270</v>
@@ -808,7 +808,7 @@
         <v>98052</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>58442</v>
@@ -819,7 +819,7 @@
         <v>98053</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>18784</v>
@@ -830,7 +830,7 @@
         <v>98055</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C34">
         <v>21904</v>
@@ -841,7 +841,7 @@
         <v>98056</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C35">
         <v>32489</v>
@@ -852,7 +852,7 @@
         <v>98057</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>10613</v>
@@ -863,7 +863,7 @@
         <v>98058</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>41938</v>
@@ -874,7 +874,7 @@
         <v>98059</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>34463</v>
@@ -885,7 +885,7 @@
         <v>98065</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>12699</v>
@@ -896,7 +896,7 @@
         <v>98070</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>10624</v>
@@ -907,7 +907,7 @@
         <v>98072</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C41">
         <v>22312</v>
@@ -918,7 +918,7 @@
         <v>98074</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>25748</v>
@@ -929,7 +929,7 @@
         <v>98075</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>20715</v>
@@ -940,7 +940,7 @@
         <v>98077</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>13585</v>
@@ -951,7 +951,7 @@
         <v>98092</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>39816</v>
@@ -962,7 +962,7 @@
         <v>98101</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>10238</v>
@@ -973,7 +973,7 @@
         <v>98102</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>20756</v>
@@ -984,7 +984,7 @@
         <v>98103</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>45911</v>
@@ -995,7 +995,7 @@
         <v>98104</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>13095</v>
@@ -1006,7 +1006,7 @@
         <v>98105</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>43924</v>
@@ -1017,7 +1017,7 @@
         <v>98106</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>22873</v>
@@ -1028,7 +1028,7 @@
         <v>98107</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>21147</v>
@@ -1039,7 +1039,7 @@
         <v>98108</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>22374</v>
@@ -1050,7 +1050,7 @@
         <v>98109</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C54">
         <v>20715</v>
@@ -1061,7 +1061,7 @@
         <v>98112</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>21077</v>
@@ -1072,7 +1072,7 @@
         <v>98115</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>46206</v>
@@ -1083,7 +1083,7 @@
         <v>98116</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>22241</v>
@@ -1094,7 +1094,7 @@
         <v>98117</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>31365</v>
@@ -1105,7 +1105,7 @@
         <v>98118</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C59">
         <v>42731</v>
@@ -1116,7 +1116,7 @@
         <v>98119</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>21039</v>
@@ -1127,7 +1127,7 @@
         <v>98121</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>12628</v>
@@ -1138,7 +1138,7 @@
         <v>98122</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>31454</v>
@@ -1149,7 +1149,7 @@
         <v>98125</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>37081</v>
@@ -1160,7 +1160,7 @@
         <v>98126</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>20698</v>
@@ -1171,7 +1171,7 @@
         <v>98133</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>44555</v>
@@ -1182,7 +1182,7 @@
         <v>98134</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>644</v>
@@ -1193,7 +1193,7 @@
         <v>98136</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>14770</v>
@@ -1204,7 +1204,7 @@
         <v>98144</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>26881</v>
@@ -1215,7 +1215,7 @@
         <v>98146</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>25922</v>
@@ -1226,7 +1226,7 @@
         <v>98148</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>10010</v>
@@ -1237,7 +1237,7 @@
         <v>98155</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C71">
         <v>32778</v>
@@ -1248,7 +1248,7 @@
         <v>98164</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>141</v>
@@ -1259,7 +1259,7 @@
         <v>98166</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>20301</v>
@@ -1270,7 +1270,7 @@
         <v>98168</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C74">
         <v>33734</v>
@@ -1281,7 +1281,7 @@
         <v>98177</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C75">
         <v>19030</v>
@@ -1292,7 +1292,7 @@
         <v>98178</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C76">
         <v>24092</v>
@@ -1303,7 +1303,7 @@
         <v>98188</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <v>23111</v>
@@ -1314,7 +1314,7 @@
         <v>98198</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C78">
         <v>34584</v>
@@ -1325,7 +1325,7 @@
         <v>98199</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C79">
         <v>19686</v>
@@ -1336,7 +1336,7 @@
         <v>98224</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>294</v>
@@ -1347,7 +1347,7 @@
         <v>98251</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C81">
         <v>4567</v>
@@ -1358,7 +1358,7 @@
         <v>98288</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>333</v>
@@ -1369,7 +1369,7 @@
         <v>98321</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>15152</v>
@@ -1380,7 +1380,7 @@
         <v>98354</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C84">
         <v>6976</v>
@@ -1391,7 +1391,7 @@
         <v>98826</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C85">
         <v>6504</v>
@@ -1402,7 +1402,7 @@
         <v>98922</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C86">
         <v>5468</v>
